--- a/Datos/Píxel_Analytics.xlsx
+++ b/Datos/Píxel_Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\Dropbox\Estadísticas EBA - Nuria\Mi trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\OneDrive\Universidad\Prácticas EBA\Mi trabajo con Python\statisticsReader\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB29F995-1B31-4EBC-8527-AE51BEFC8754}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CB29F995-1B31-4EBC-8527-AE51BEFC8754}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A83D2F4A-0220-40DF-917B-E29D835A169C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitas a la página" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Nuria Gómez Vargas</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{91FC4A8E-AE62-44D3-A0A6-9971B162AB15}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{91FC4A8E-AE62-44D3-A0A6-9971B162AB15}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{72AE1A40-210D-4F3B-91FE-1F0A44F54B67}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{72AE1A40-210D-4F3B-91FE-1F0A44F54B67}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{4248386B-D5BE-43EF-B058-FAD2AD1302F2}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4248386B-D5BE-43EF-B058-FAD2AD1302F2}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{F33C3252-75D0-49D4-9013-6C650E68B266}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F33C3252-75D0-49D4-9013-6C650E68B266}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{C2624FE9-EDFC-47CD-878E-ABA18A6FD0DE}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{C2624FE9-EDFC-47CD-878E-ABA18A6FD0DE}">
       <text>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{B9252443-88B1-4CA8-8446-CD719244D1D6}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B9252443-88B1-4CA8-8446-CD719244D1D6}">
       <text>
         <r>
           <rPr>
@@ -242,9 +242,9 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F8A81B49-CC70-41F1-869A-24E47CCCE1EB}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Muestra el porcentaje de personas que han vuelto a visitar tu sitio web, aplicación, página u otro canal tras la interacción inicial.
 </t>
       </text>
@@ -254,13 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
-  <si>
-    <t>Actividad de usuario</t>
-  </si>
-  <si>
-    <t>Sesiones</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -452,7 +446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,7 +608,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,18 +803,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,7 +1069,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1108,14 +1090,12 @@
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1195,7 +1175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1500,13 +1480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C13" sqref="A10:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
@@ -1518,197 +1498,183 @@
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43374</v>
+      </c>
+      <c r="B2" s="1">
+        <v>528</v>
+      </c>
+      <c r="C2" s="1">
+        <v>193</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/C2</f>
+        <v>2.7357512953367875</v>
+      </c>
+      <c r="E2" s="6">
+        <v>239</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B3" s="1">
-        <v>528</v>
+        <v>1032</v>
       </c>
       <c r="C3" s="1">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1">
         <f>B3/C3</f>
-        <v>2.7357512953367875</v>
-      </c>
-      <c r="E3" s="8">
-        <v>239</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="8" t="s">
+        <v>5.2653061224489797</v>
+      </c>
+      <c r="E3" s="6">
+        <v>287</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B4" s="1">
-        <v>1032</v>
+        <v>674</v>
       </c>
       <c r="C4" s="1">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1">
         <f>B4/C4</f>
-        <v>5.2653061224489797</v>
-      </c>
-      <c r="E4" s="8">
-        <v>287</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8" t="s">
+        <v>6.0720720720720722</v>
+      </c>
+      <c r="E4" s="6">
+        <v>173</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B5" s="1">
-        <v>674</v>
+        <v>928</v>
       </c>
       <c r="C5" s="1">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1">
         <f>B5/C5</f>
-        <v>6.0720720720720722</v>
-      </c>
-      <c r="E5" s="8">
-        <v>173</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="8" t="s">
+        <v>6.581560283687943</v>
+      </c>
+      <c r="E5" s="6">
+        <v>210</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B6" s="1">
-        <v>928</v>
+        <v>462</v>
       </c>
       <c r="C6" s="1">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1">
         <f>B6/C6</f>
-        <v>6.581560283687943</v>
-      </c>
-      <c r="E6" s="8">
-        <v>210</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="8" t="s">
+        <v>4.2777777777777777</v>
+      </c>
+      <c r="E6" s="6">
+        <v>122</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4">
-        <v>43497</v>
-      </c>
-      <c r="B7" s="1">
-        <v>462</v>
-      </c>
-      <c r="C7" s="1">
-        <v>108</v>
-      </c>
-      <c r="D7" s="1">
-        <f>B7/C7</f>
-        <v>4.2777777777777777</v>
-      </c>
-      <c r="E7" s="8">
-        <v>122</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1721,98 +1687,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400ADF30-AE69-4CF6-B973-800080BEC11D}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{898326DF-E04C-578A-8ED1-CE415D25614B}">
-      <selection sqref="A1:A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>43374</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>43405</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>43435</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="C4" s="24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="27">
-        <v>43374</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="D4" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>43466</v>
+      </c>
+      <c r="B5" s="15">
         <v>0</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C5" s="15">
         <v>0</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D5" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="27">
-        <v>43405</v>
-      </c>
-      <c r="B3" s="17">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>43497</v>
+      </c>
+      <c r="B6" s="15">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C6" s="15">
         <v>0</v>
       </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="27">
-        <v>43435</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="27">
-        <v>43466</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="27">
-        <v>43497</v>
-      </c>
-      <c r="B6" s="17">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1825,183 +1791,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53630A9A-05D5-4B5E-A140-3E92CB9B277E}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{0555FA10-B74E-558B-A9E5-4385B52F469A}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22">
+        <v>2</v>
+      </c>
+      <c r="F2" s="22">
+        <v>3</v>
+      </c>
+      <c r="G2" s="22">
+        <v>4</v>
+      </c>
+      <c r="H2" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="B3" s="19">
+        <v>47</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="24">
+      <c r="B4" s="19">
+        <v>142</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="F4" s="21">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="G4" s="21">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="19">
+        <v>143</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="19">
         <v>0</v>
       </c>
-      <c r="D2" s="24">
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="19">
+        <v>33</v>
+      </c>
+      <c r="C7" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="24">
-        <v>2</v>
-      </c>
-      <c r="F2" s="24">
-        <v>3</v>
-      </c>
-      <c r="G2" s="24">
-        <v>4</v>
-      </c>
-      <c r="H2" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="21">
-        <v>47</v>
-      </c>
-      <c r="C3" s="22">
+      <c r="D7" s="21">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="19">
+        <v>83</v>
+      </c>
+      <c r="C8" s="20">
         <v>1</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0</v>
-      </c>
-      <c r="G3" s="23">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="H3" s="23">
-        <v>2.1299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="21">
-        <v>142</v>
-      </c>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="E4" s="23">
-        <v>4.2299999999999997E-2</v>
-      </c>
-      <c r="F4" s="23">
-        <v>6.3399999999999998E-2</v>
-      </c>
-      <c r="G4" s="23">
-        <v>4.2299999999999997E-2</v>
-      </c>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="21">
-        <v>143</v>
-      </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E5" s="23">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="F5" s="23">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="21">
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="21">
-        <v>33</v>
-      </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="21">
-        <v>83</v>
-      </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2013,130 +1979,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E08CBBA-F3AA-40DB-8DF7-6AC282ED16D2}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0" xr3:uid="{772466B5-DD6B-55BD-8A83-C31A590573BE}">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B2" s="7">
+        <v>103</v>
+      </c>
+      <c r="C2" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="B3" s="7">
+        <v>238</v>
+      </c>
+      <c r="C3" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="9">
-        <v>103</v>
-      </c>
-      <c r="C2" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="B4" s="7">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="9">
-        <v>238</v>
-      </c>
-      <c r="C3" s="9">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="9">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B12" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="16" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/Píxel_Analytics.xlsx
+++ b/Datos/Píxel_Analytics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\OneDrive\Universidad\Prácticas EBA\Mi trabajo con Python\statisticsReader\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CB29F995-1B31-4EBC-8527-AE51BEFC8754}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A83D2F4A-0220-40DF-917B-E29D835A169C}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{CB29F995-1B31-4EBC-8527-AE51BEFC8754}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FAF375AC-56E5-42BF-924B-6A043B86A951}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -440,13 +440,22 @@
   </si>
   <si>
     <t>Español</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.306</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +615,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="53">
@@ -1069,7 +1086,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1096,6 +1113,8 @@
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1480,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I7" sqref="I7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,9 +1696,49 @@
         <v>28</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>43525</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7">
+        <v>248</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>43556</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8">
+        <v>156</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>43586</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9">
+        <v>186</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
